--- a/AutomationExercise_Team_C_main/src/test/resources/TestData.xlsx
+++ b/AutomationExercise_Team_C_main/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\OneDrive\Desktop\Teja sri\AutomationExercise_Team_C_main\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\git\repository\AutomationExercise_Team_C_main\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA27844B-3D74-4C8D-8FD1-26AB0FC8126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFAC60-B001-4769-8362-84176FF3D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3516" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{7E2DFAFE-71E1-4FBF-8EDD-0E3EA186F345}"/>
   </bookViews>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ABB10A-800C-46C8-8D7E-F7277C4503FB}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AutomationExercise_Team_C_main/src/test/resources/TestData.xlsx
+++ b/AutomationExercise_Team_C_main/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krant\git\repository\AutomationExercise_Team_C_main\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thummala aruna\git\TeamC_AutomationExercise\AutomationExercise_Team_C_main\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEFAC60-B001-4769-8362-84176FF3D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65FEA2-487A-43E1-BA6C-BD02B83F853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{7E2DFAFE-71E1-4FBF-8EDD-0E3EA186F345}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E2DFAFE-71E1-4FBF-8EDD-0E3EA186F345}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>TeamC</t>
   </si>
@@ -272,10 +263,19 @@
     <t>ssri90@gmail.com</t>
   </si>
   <si>
-    <t>indhu193@gmail.com</t>
-  </si>
-  <si>
     <t>dakshu99@gmail.com</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>a2nu@gmail.com</t>
+  </si>
+  <si>
+    <t>indhu444@gmail.com</t>
+  </si>
+  <si>
+    <t>a3nu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -640,28 +640,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ABB10A-800C-46C8-8D7E-F7277C4503FB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -699,7 +699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1234567809</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -775,12 +775,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
@@ -813,12 +813,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -851,7 +851,7 @@
         <v>9505484743</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -887,6 +887,28 @@
       </c>
       <c r="L6">
         <v>9989017019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -899,6 +921,8 @@
     <hyperlink ref="B6" r:id="rId6" xr:uid="{03CEA849-451A-400B-99B2-B890C117088B}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{D1817726-65B1-409B-981D-FF167ADCE937}"/>
     <hyperlink ref="B2" r:id="rId8" xr:uid="{481AFCBB-5628-4C28-B70C-917BAF4AFBD7}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{80911BED-25E2-4A13-9BC0-C7C5532321D9}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{E5DE5E66-9605-4762-955E-4DA5F4D451FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -912,19 +936,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -950,7 +974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -989,15 +1013,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1011,7 +1035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>

--- a/AutomationExercise_Team_C_main/src/test/resources/TestData.xlsx
+++ b/AutomationExercise_Team_C_main/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thummala aruna\git\TeamC_AutomationExercise\AutomationExercise_Team_C_main\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65FEA2-487A-43E1-BA6C-BD02B83F853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567E876-6A1D-4101-8F91-F7831A17CB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E2DFAFE-71E1-4FBF-8EDD-0E3EA186F345}"/>
   </bookViews>
